--- a/nordson.omu/src/test/java/com/nordson/testData/NorfilePressure.xlsx
+++ b/nordson.omu/src/test/java/com/nordson/testData/NorfilePressure.xlsx
@@ -4,25 +4,34 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9335" activeTab="1"/>
+    <workbookView windowWidth="23040" windowHeight="9335" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Input_Minmax_KPA_manualadjust" sheetId="3" r:id="rId1"/>
     <sheet name="Input_Minmax_BAR_manualadjust" sheetId="2" r:id="rId2"/>
     <sheet name="Input_Minmax_PSI_manualadjust" sheetId="1" r:id="rId3"/>
-    <sheet name="Output_KPA_Manualadjust" r:id="rId13" sheetId="44"/>
-    <sheet name="Output_KPA_Mnladjst_ntv" r:id="rId14" sheetId="45"/>
-    <sheet name="Output_BAR_Manualadjust" r:id="rId15" sheetId="46"/>
-    <sheet name="Output_BAR_Mnladjst_ntv" r:id="rId16" sheetId="47"/>
-    <sheet name="Output_Min_Max_PSI_Manualadjust" r:id="rId17" sheetId="48"/>
-    <sheet name="Output_PSI_Mnladjst_ntv" r:id="rId18" sheetId="49"/>
+    <sheet name="Input_KPA_electronicadjust" sheetId="39" r:id="rId4"/>
+    <sheet name="Input_BAR_electronicadjust" sheetId="60" r:id="rId5"/>
+    <sheet name="Input_PSI_electronicadjust" sheetId="61" r:id="rId6"/>
+    <sheet name="Output_KPA_Manualadjust" r:id="rId22" sheetId="118"/>
+    <sheet name="Output_KPA_Mnladjst_ntv" r:id="rId23" sheetId="119"/>
+    <sheet name="Output_BAR_Manualadjust" r:id="rId24" sheetId="120"/>
+    <sheet name="Output_BAR_Mnladjst_ntv" r:id="rId25" sheetId="121"/>
+    <sheet name="Output_Min_Max_PSI_Manualadjust" r:id="rId26" sheetId="122"/>
+    <sheet name="Output_PSI_Mnladjst_ntv" r:id="rId27" sheetId="123"/>
+    <sheet name="Output_KPA_electronicadjust" r:id="rId28" sheetId="124"/>
+    <sheet name="Output_KPA_electronicadjust_Ntv" r:id="rId29" sheetId="125"/>
+    <sheet name="Output_BAR_electronicadjust" r:id="rId30" sheetId="126"/>
+    <sheet name="Output_BAR_electronicadjust_Ntv" r:id="rId31" sheetId="127"/>
+    <sheet name="Output_PSI_electronicadjust" r:id="rId32" sheetId="128"/>
+    <sheet name="Output_PSI_electronicadjust_Ntv" r:id="rId21" sheetId="129"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="485" uniqueCount="62">
   <si>
     <t>Min_Pressure_KPA_UI</t>
   </si>
@@ -42,52 +51,172 @@
     <t>Max_pressure_PSI_UI</t>
   </si>
   <si>
+    <t>PressureSetpoint_KPA_UI</t>
+  </si>
+  <si>
+    <t>Pressure_LowAlertThreshold_KPA_UI</t>
+  </si>
+  <si>
+    <t>Pressure_HighAlertThreshold_KPA_UI</t>
+  </si>
+  <si>
+    <t>PressureMinimumPressureSetPointRange__KPA_UI</t>
+  </si>
+  <si>
+    <t>Pressure_MaximimPressureSetPointRange_KPA_UI</t>
+  </si>
+  <si>
+    <t>PressureSetpoint_BAR_UI</t>
+  </si>
+  <si>
+    <t>Pressure_LowAlertThreshold_BAR_UI</t>
+  </si>
+  <si>
+    <t>Pressure_HighAlertThreshold_BAR_UI</t>
+  </si>
+  <si>
+    <t>PressureMinimumPressureSetPointRange__BAR_UI</t>
+  </si>
+  <si>
+    <t>Pressure_MaximimPressureSetPointRange_BAR_UI</t>
+  </si>
+  <si>
+    <t>PressureSetpoint_PSI_UI</t>
+  </si>
+  <si>
+    <t>Pressure_LowAlertThreshold_PSI_UI</t>
+  </si>
+  <si>
+    <t>Pressure_HighAlertThreshold_PSI_UI</t>
+  </si>
+  <si>
+    <t>PressureMinimumPressureSetPointRange__PSI_UI</t>
+  </si>
+  <si>
+    <t>Pressure_MaximimPressureSetPointRange_PSI_UI</t>
+  </si>
+  <si>
     <t>ulLowPressureAlertThreshold</t>
   </si>
   <si>
     <t>ulHighPressureAlertThreshold</t>
   </si>
   <si>
+    <t>45000</t>
+  </si>
+  <si>
+    <t>60000</t>
+  </si>
+  <si>
+    <t>ulLowPressureAlertThresholdNative</t>
+  </si>
+  <si>
+    <t>ulHighPressureAlertThresholdNative</t>
+  </si>
+  <si>
+    <t>6400</t>
+  </si>
+  <si>
+    <t>6900</t>
+  </si>
+  <si>
+    <t>92824</t>
+  </si>
+  <si>
+    <t>100076</t>
+  </si>
+  <si>
+    <t>ulPressureSetPoint</t>
+  </si>
+  <si>
+    <t>69000</t>
+  </si>
+  <si>
+    <t>ulLowPressureAlertDelta</t>
+  </si>
+  <si>
+    <t>34000</t>
+  </si>
+  <si>
+    <t>ulHighPressureAlertDelta</t>
+  </si>
+  <si>
+    <t>ulPressureMinSetPoint</t>
+  </si>
+  <si>
+    <t>ulPressureMaxSetPoint</t>
+  </si>
+  <si>
+    <t>138000</t>
+  </si>
+  <si>
+    <t>ulPressureSetPointNative</t>
+  </si>
+  <si>
+    <t>10008</t>
+  </si>
+  <si>
+    <t>ulLowPressureAlertDeltaNative</t>
+  </si>
+  <si>
+    <t>4931</t>
+  </si>
+  <si>
+    <t>ulHighPressureAlertDeltaNative</t>
+  </si>
+  <si>
+    <t>ulPressureMinSetPointNative</t>
+  </si>
+  <si>
+    <t>ulPressureMaxSetPointNative</t>
+  </si>
+  <si>
+    <t>20015</t>
+  </si>
+  <si>
+    <t>690</t>
+  </si>
+  <si>
+    <t>340</t>
+  </si>
+  <si>
+    <t>1380</t>
+  </si>
+  <si>
+    <t>10000</t>
+  </si>
+  <si>
+    <t>5000</t>
+  </si>
+  <si>
+    <t>20000</t>
+  </si>
+  <si>
     <t>258000</t>
   </si>
   <si>
     <t>450000</t>
   </si>
   <si>
-    <t>ulLowPressureAlertThresholdNative</t>
-  </si>
-  <si>
-    <t>ulHighPressureAlertThresholdNative</t>
-  </si>
-  <si>
     <t>37420</t>
   </si>
   <si>
     <t>65267</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>6900</t>
-  </si>
-  <si>
     <t>14939</t>
   </si>
   <si>
-    <t>100076</t>
-  </si>
-  <si>
-    <t>45000</t>
-  </si>
-  <si>
-    <t>60000</t>
-  </si>
-  <si>
-    <t>4200</t>
-  </si>
-  <si>
-    <t>60916</t>
+    <t>70053</t>
+  </si>
+  <si>
+    <t>103000</t>
+  </si>
+  <si>
+    <t>690000</t>
+  </si>
+  <si>
+    <t>100000</t>
   </si>
 </sst>
 </file>
@@ -95,10 +224,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -113,6 +242,51 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <u/>
@@ -124,15 +298,76 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -146,118 +381,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="36">
     <fill>
@@ -274,91 +403,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -370,73 +577,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -454,29 +595,32 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -495,21 +639,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -521,6 +650,15 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -551,15 +689,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -572,8 +701,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -582,171 +726,180 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1081,24 +1234,480 @@
   </cols>
   <sheetData>
     <row r="1" ht="24" customHeight="1" spans="1:2">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="4">
+      <c r="A2" s="7">
         <v>258</v>
       </c>
-      <c r="B2" s="6">
+      <c r="B2" s="9">
         <v>450</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet118.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet119.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet120.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet121.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet122.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet123.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet124.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet125.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet126.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet127.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet128.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet129.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
@@ -1107,8 +1716,8 @@
   <sheetPr/>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="1"/>
@@ -1118,18 +1727,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="4" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="4">
-        <v>4.2</v>
-      </c>
-      <c r="B2" s="5">
+      <c r="A2" s="7">
+        <v>6.4</v>
+      </c>
+      <c r="B2" s="8">
         <v>6.9</v>
       </c>
     </row>
@@ -1145,7 +1754,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="1"/>
@@ -1155,18 +1764,18 @@
   </cols>
   <sheetData>
     <row r="1" ht="23" customHeight="1" spans="1:2">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="4" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="2">
+      <c r="A2" s="5">
         <v>45</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B2" s="6">
         <v>60</v>
       </c>
     </row>
@@ -1176,176 +1785,162 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B2"/>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="4"/>
+  <cols>
+    <col min="1" max="1" customWidth="true" width="19.1111111111111" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="27.7777777777778" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="26.8888888888889" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="41.6666666666667" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="29.8888888888889" collapsed="true"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="s">
+    <row r="1" ht="26.4" spans="1:5">
+      <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s">
+      <c r="C1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B2" t="s">
+      <c r="D1" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="E1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="2">
+        <v>69</v>
+      </c>
+      <c r="B2" s="3">
+        <v>34</v>
+      </c>
+      <c r="C2" s="3">
+        <v>34</v>
+      </c>
+      <c r="D2" s="3">
+        <v>69</v>
+      </c>
+      <c r="E2" s="3">
+        <v>138</v>
+      </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B2"/>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="4"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="s">
+    <row r="1" ht="79.2" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="2">
+        <v>0.69</v>
+      </c>
+      <c r="B2" s="3">
+        <v>0.34</v>
+      </c>
+      <c r="C2" s="3">
+        <v>0.34</v>
+      </c>
+      <c r="D2" s="3">
+        <v>0.69</v>
+      </c>
+      <c r="E2" s="3">
+        <v>1.38</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:E2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="4"/>
+  <sheetData>
+    <row r="1" ht="79.2" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="2">
         <v>10</v>
       </c>
-      <c r="B1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" t="s">
-        <v>13</v>
+      <c r="B2" s="3">
+        <v>5</v>
+      </c>
+      <c r="C2" s="3">
+        <v>5</v>
+      </c>
+      <c r="D2" s="3">
+        <v>10</v>
+      </c>
+      <c r="E2" s="3">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet48.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet49.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/nordson.omu/src/test/java/com/nordson/testData/NorfilePressure.xlsx
+++ b/nordson.omu/src/test/java/com/nordson/testData/NorfilePressure.xlsx
@@ -10,19 +10,19 @@
     <sheet name="Input_Default_PSI_Manualadjust" sheetId="2" r:id="rId1"/>
     <sheet name="Input_Min_PSI_manualadjust" sheetId="1" r:id="rId2"/>
     <sheet name="Input_Max_PSI_manualadjust" sheetId="5" r:id="rId3"/>
-    <sheet name="Output_Default_PSI_Manualadjust" r:id="rId12" sheetId="100"/>
-    <sheet name="Output_PSI_Mnladjst_defult_ntv" r:id="rId16" sheetId="101"/>
-    <sheet name="Output_Manualadjust_PSI_Minvals" r:id="rId13" sheetId="102"/>
-    <sheet name="Output_PSI_Mnladjst_ntv_minvals" r:id="rId14" sheetId="103"/>
-    <sheet name="Output_PSI_Manualadjust_Maxvals" r:id="rId15" sheetId="104"/>
-    <sheet name="Output_PSI_Mnladjst_maxvls_ntv" r:id="rId17" sheetId="105"/>
+    <sheet name="Output_Default_PSI_Manualadjust" r:id="rId12" sheetId="240"/>
+    <sheet name="Output_PSI_Mnladjst_defult_ntv" r:id="rId16" sheetId="241"/>
+    <sheet name="Output_Manualadjust_PSI_Minvals" r:id="rId13" sheetId="242"/>
+    <sheet name="Output_PSI_Mnladjst_ntv_minvals" r:id="rId14" sheetId="243"/>
+    <sheet name="Output_PSI_Manualadjust_Maxvals" r:id="rId15" sheetId="244"/>
+    <sheet name="Output_PSI_Mnladjst_maxvls_ntv" r:id="rId17" sheetId="245"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="970" uniqueCount="11">
   <si>
     <t>Min_Pressure_PSI_UI</t>
   </si>
@@ -1054,180 +1054,6 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet100.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet101.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet102.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet103.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet104.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet105.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
@@ -1262,6 +1088,180 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet240.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet241.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet242.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet243.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet244.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet245.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 

--- a/nordson.omu/src/test/java/com/nordson/testData/NorfilePressure.xlsx
+++ b/nordson.omu/src/test/java/com/nordson/testData/NorfilePressure.xlsx
@@ -10,19 +10,19 @@
     <sheet name="Input_Default_PSI_Manualadjust" sheetId="2" r:id="rId1"/>
     <sheet name="Input_Min_PSI_manualadjust" sheetId="1" r:id="rId2"/>
     <sheet name="Input_Max_PSI_manualadjust" sheetId="5" r:id="rId3"/>
-    <sheet name="Output_Default_PSI_Manualadjust" r:id="rId12" sheetId="240"/>
-    <sheet name="Output_PSI_Mnladjst_defult_ntv" r:id="rId16" sheetId="241"/>
-    <sheet name="Output_Manualadjust_PSI_Minvals" r:id="rId13" sheetId="242"/>
-    <sheet name="Output_PSI_Mnladjst_ntv_minvals" r:id="rId14" sheetId="243"/>
-    <sheet name="Output_PSI_Manualadjust_Maxvals" r:id="rId15" sheetId="244"/>
-    <sheet name="Output_PSI_Mnladjst_maxvls_ntv" r:id="rId17" sheetId="245"/>
+    <sheet name="Output_Default_PSI_Manualadjust" r:id="rId12" sheetId="282"/>
+    <sheet name="Output_PSI_Mnladjst_defult_ntv" r:id="rId16" sheetId="283"/>
+    <sheet name="Output_Manualadjust_PSI_Minvals" r:id="rId13" sheetId="284"/>
+    <sheet name="Output_PSI_Mnladjst_ntv_minvals" r:id="rId14" sheetId="285"/>
+    <sheet name="Output_PSI_Manualadjust_Maxvals" r:id="rId15" sheetId="286"/>
+    <sheet name="Output_PSI_Mnladjst_maxvls_ntv" r:id="rId17" sheetId="287"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="970" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1138" uniqueCount="11">
   <si>
     <t>Min_Pressure_PSI_UI</t>
   </si>
@@ -1091,7 +1091,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet240.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet282.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:B2"/>
   <sheetViews>
@@ -1120,7 +1120,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet241.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet283.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:B2"/>
   <sheetViews>
@@ -1149,7 +1149,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet242.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet284.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:B2"/>
   <sheetViews>
@@ -1178,7 +1178,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet243.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet285.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:B2"/>
   <sheetViews>
@@ -1207,7 +1207,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet244.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet286.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:B2"/>
   <sheetViews>
@@ -1236,7 +1236,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet245.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet287.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:B2"/>
   <sheetViews>

--- a/nordson.omu/src/test/java/com/nordson/testData/NorfilePressure.xlsx
+++ b/nordson.omu/src/test/java/com/nordson/testData/NorfilePressure.xlsx
@@ -10,19 +10,19 @@
     <sheet name="Input_Default_PSI_Manualadjust" sheetId="2" r:id="rId1"/>
     <sheet name="Input_Min_PSI_manualadjust" sheetId="1" r:id="rId2"/>
     <sheet name="Input_Max_PSI_manualadjust" sheetId="5" r:id="rId3"/>
-    <sheet name="Output_Default_PSI_Manualadjust" r:id="rId12" sheetId="282"/>
-    <sheet name="Output_PSI_Mnladjst_defult_ntv" r:id="rId16" sheetId="283"/>
-    <sheet name="Output_Manualadjust_PSI_Minvals" r:id="rId13" sheetId="284"/>
-    <sheet name="Output_PSI_Mnladjst_ntv_minvals" r:id="rId14" sheetId="285"/>
-    <sheet name="Output_PSI_Manualadjust_Maxvals" r:id="rId15" sheetId="286"/>
-    <sheet name="Output_PSI_Mnladjst_maxvls_ntv" r:id="rId17" sheetId="287"/>
+    <sheet name="Output_Default_PSI_Manualadjust" r:id="rId12" sheetId="405"/>
+    <sheet name="Output_PSI_Mnladjst_defult_ntv" r:id="rId16" sheetId="406"/>
+    <sheet name="Output_Manualadjust_PSI_Minvals" r:id="rId13" sheetId="407"/>
+    <sheet name="Output_PSI_Mnladjst_ntv_minvals" r:id="rId14" sheetId="408"/>
+    <sheet name="Output_PSI_Manualadjust_Maxvals" r:id="rId15" sheetId="409"/>
+    <sheet name="Output_PSI_Mnladjst_maxvls_ntv" r:id="rId17" sheetId="410"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1138" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1638" uniqueCount="11">
   <si>
     <t>Min_Pressure_PSI_UI</t>
   </si>
@@ -1091,180 +1091,6 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet282.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet283.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet284.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet285.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet286.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet287.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
@@ -1300,4 +1126,178 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet405.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet406.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet407.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet408.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet409.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet410.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
 </file>